--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tslp-Crlf2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tslp-Crlf2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Tslp</t>
+  </si>
+  <si>
+    <t>Crlf2</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Tslp</t>
-  </si>
-  <si>
-    <t>Crlf2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8134069999999999</v>
+        <v>0.9766126666666667</v>
       </c>
       <c r="H2">
-        <v>2.440221</v>
+        <v>2.929838</v>
       </c>
       <c r="I2">
-        <v>0.2475024045622327</v>
+        <v>0.5000424120853793</v>
       </c>
       <c r="J2">
-        <v>0.2475024045622327</v>
+        <v>0.5000424120853793</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.692626</v>
+        <v>6.393818</v>
       </c>
       <c r="N2">
-        <v>11.077878</v>
+        <v>19.181454</v>
       </c>
       <c r="O2">
-        <v>0.08072303334413175</v>
+        <v>0.1212800542767402</v>
       </c>
       <c r="P2">
-        <v>0.08072303334413174</v>
+        <v>0.1212800542767402</v>
       </c>
       <c r="Q2">
-        <v>3.003607836782</v>
+        <v>6.244283647161334</v>
       </c>
       <c r="R2">
-        <v>27.032470531038</v>
+        <v>56.19855282445201</v>
       </c>
       <c r="S2">
-        <v>0.0199791448562299</v>
+        <v>0.06064517087838688</v>
       </c>
       <c r="T2">
-        <v>0.01997914485622989</v>
+        <v>0.0606451708783869</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8134069999999999</v>
+        <v>0.9766126666666667</v>
       </c>
       <c r="H3">
-        <v>2.440221</v>
+        <v>2.929838</v>
       </c>
       <c r="I3">
-        <v>0.2475024045622327</v>
+        <v>0.5000424120853793</v>
       </c>
       <c r="J3">
-        <v>0.2475024045622327</v>
+        <v>0.5000424120853793</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>4.286269</v>
       </c>
       <c r="O3">
-        <v>0.03123347588851567</v>
+        <v>0.02710112262421342</v>
       </c>
       <c r="P3">
-        <v>0.03123347588851567</v>
+        <v>0.02710112262421342</v>
       </c>
       <c r="Q3">
-        <v>1.162160402827666</v>
+        <v>1.395341532713555</v>
       </c>
       <c r="R3">
-        <v>10.459443625449</v>
+        <v>12.558073794422</v>
       </c>
       <c r="S3">
-        <v>0.007730360385244148</v>
+        <v>0.01355171072723332</v>
       </c>
       <c r="T3">
-        <v>0.007730360385244145</v>
+        <v>0.01355171072723332</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8134069999999999</v>
+        <v>0.9766126666666667</v>
       </c>
       <c r="H4">
-        <v>2.440221</v>
+        <v>2.929838</v>
       </c>
       <c r="I4">
-        <v>0.2475024045622327</v>
+        <v>0.5000424120853793</v>
       </c>
       <c r="J4">
-        <v>0.2475024045622327</v>
+        <v>0.5000424120853793</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.803059</v>
+        <v>13.99713933333333</v>
       </c>
       <c r="N4">
-        <v>38.409177</v>
+        <v>41.991418</v>
       </c>
       <c r="O4">
-        <v>0.2798825980654109</v>
+        <v>0.2655023677661394</v>
       </c>
       <c r="P4">
-        <v>0.2798825980654109</v>
+        <v>0.2655023677661394</v>
       </c>
       <c r="Q4">
-        <v>10.414097812013</v>
+        <v>13.66978357003156</v>
       </c>
       <c r="R4">
-        <v>93.72688030811699</v>
+        <v>123.028052130284</v>
       </c>
       <c r="S4">
-        <v>0.0692716160163141</v>
+        <v>0.1327624443921598</v>
       </c>
       <c r="T4">
-        <v>0.06927161601631408</v>
+        <v>0.1327624443921598</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,14 +714,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8134069999999999</v>
+        <v>0.9766126666666667</v>
       </c>
       <c r="H5">
-        <v>2.440221</v>
+        <v>2.929838</v>
       </c>
       <c r="I5">
-        <v>0.2475024045622327</v>
+        <v>0.5000424120853793</v>
       </c>
       <c r="J5">
-        <v>0.2475024045622327</v>
+        <v>0.5000424120853793</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.178520333333333</v>
+        <v>0.4015706666666667</v>
       </c>
       <c r="N5">
-        <v>3.535561</v>
+        <v>1.204712</v>
       </c>
       <c r="O5">
-        <v>0.02576316587826764</v>
+        <v>0.007617125205828518</v>
       </c>
       <c r="P5">
-        <v>0.02576316587826764</v>
+        <v>0.007617125205828518</v>
       </c>
       <c r="Q5">
-        <v>0.9586166887756665</v>
+        <v>0.3921789996284445</v>
       </c>
       <c r="R5">
-        <v>8.627550198980998</v>
+        <v>3.529610996656</v>
       </c>
       <c r="S5">
-        <v>0.006376445504006908</v>
+        <v>0.003808885661078833</v>
       </c>
       <c r="T5">
-        <v>0.006376445504006905</v>
+        <v>0.003808885661078833</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8134069999999999</v>
+        <v>0.9766126666666667</v>
       </c>
       <c r="H6">
-        <v>2.440221</v>
+        <v>2.929838</v>
       </c>
       <c r="I6">
-        <v>0.2475024045622327</v>
+        <v>0.5000424120853793</v>
       </c>
       <c r="J6">
-        <v>0.2475024045622327</v>
+        <v>0.5000424120853793</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.44041166666667</v>
+        <v>16.23173666666667</v>
       </c>
       <c r="N6">
-        <v>37.321235</v>
+        <v>48.69521</v>
       </c>
       <c r="O6">
-        <v>0.2719549084535122</v>
+        <v>0.3078889489721301</v>
       </c>
       <c r="P6">
-        <v>0.2719549084535122</v>
+        <v>0.3078889489721302</v>
       </c>
       <c r="Q6">
-        <v>10.11911793254833</v>
+        <v>15.85211963066445</v>
       </c>
       <c r="R6">
-        <v>91.072061392935</v>
+        <v>142.66907667598</v>
       </c>
       <c r="S6">
-        <v>0.06730949377474615</v>
+        <v>0.1539575326984562</v>
       </c>
       <c r="T6">
-        <v>0.06730949377474613</v>
+        <v>0.1539575326984562</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8134069999999999</v>
+        <v>0.9766126666666667</v>
       </c>
       <c r="H7">
-        <v>2.440221</v>
+        <v>2.929838</v>
       </c>
       <c r="I7">
-        <v>0.2475024045622327</v>
+        <v>0.5000424120853793</v>
       </c>
       <c r="J7">
-        <v>0.2475024045622327</v>
+        <v>0.5000424120853793</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.20101766666667</v>
+        <v>14.266431</v>
       </c>
       <c r="N7">
-        <v>42.603053</v>
+        <v>42.799293</v>
       </c>
       <c r="O7">
-        <v>0.3104428183701619</v>
+        <v>0.2706103811549482</v>
       </c>
       <c r="P7">
-        <v>0.3104428183701618</v>
+        <v>0.2706103811549483</v>
       </c>
       <c r="Q7">
-        <v>11.55120717719033</v>
+        <v>13.932777222726</v>
       </c>
       <c r="R7">
-        <v>103.960864594713</v>
+        <v>125.394995004534</v>
       </c>
       <c r="S7">
-        <v>0.07683534402569153</v>
+        <v>0.1353166677280642</v>
       </c>
       <c r="T7">
-        <v>0.0768353440256915</v>
+        <v>0.1353166677280642</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8876559999999999</v>
+        <v>0.8876560000000001</v>
       </c>
       <c r="H8">
         <v>2.662968</v>
       </c>
       <c r="I8">
-        <v>0.2700947919357631</v>
+        <v>0.454495075163261</v>
       </c>
       <c r="J8">
-        <v>0.2700947919357631</v>
+        <v>0.4544950751632609</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.692626</v>
+        <v>6.393818</v>
       </c>
       <c r="N8">
-        <v>11.077878</v>
+        <v>19.181454</v>
       </c>
       <c r="O8">
-        <v>0.08072303334413175</v>
+        <v>0.1212800542767402</v>
       </c>
       <c r="P8">
-        <v>0.08072303334413174</v>
+        <v>0.1212800542767402</v>
       </c>
       <c r="Q8">
-        <v>3.277781624656</v>
+        <v>5.675510910608002</v>
       </c>
       <c r="R8">
-        <v>29.500034621904</v>
+        <v>51.07959819547201</v>
       </c>
       <c r="S8">
-        <v>0.02180287089550693</v>
+        <v>0.05512118738431141</v>
       </c>
       <c r="T8">
-        <v>0.02180287089550693</v>
+        <v>0.05512118738431141</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8876559999999999</v>
+        <v>0.8876560000000001</v>
       </c>
       <c r="H9">
         <v>2.662968</v>
       </c>
       <c r="I9">
-        <v>0.2700947919357631</v>
+        <v>0.454495075163261</v>
       </c>
       <c r="J9">
-        <v>0.2700947919357631</v>
+        <v>0.4544950751632609</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>4.286269</v>
       </c>
       <c r="O9">
-        <v>0.03123347588851567</v>
+        <v>0.02710112262421342</v>
       </c>
       <c r="P9">
-        <v>0.03123347588851567</v>
+        <v>0.02710112262421342</v>
       </c>
       <c r="Q9">
-        <v>1.268244131821333</v>
+        <v>1.268244131821334</v>
       </c>
       <c r="R9">
         <v>11.414197186392</v>
       </c>
       <c r="S9">
-        <v>0.008435999171539315</v>
+        <v>0.01231732676410063</v>
       </c>
       <c r="T9">
-        <v>0.008435999171539312</v>
+        <v>0.01231732676410063</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,14 +1024,14 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8876559999999999</v>
+        <v>0.8876560000000001</v>
       </c>
       <c r="H10">
         <v>2.662968</v>
       </c>
       <c r="I10">
-        <v>0.2700947919357631</v>
+        <v>0.454495075163261</v>
       </c>
       <c r="J10">
-        <v>0.2700947919357631</v>
+        <v>0.4544950751632609</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.803059</v>
+        <v>13.99713933333333</v>
       </c>
       <c r="N10">
-        <v>38.409177</v>
+        <v>41.991418</v>
       </c>
       <c r="O10">
-        <v>0.2798825980654109</v>
+        <v>0.2655023677661394</v>
       </c>
       <c r="P10">
-        <v>0.2798825980654109</v>
+        <v>0.2655023677661394</v>
       </c>
       <c r="Q10">
-        <v>11.364712139704</v>
+        <v>12.42464471206934</v>
       </c>
       <c r="R10">
-        <v>102.282409257336</v>
+        <v>111.821802408624</v>
       </c>
       <c r="S10">
-        <v>0.07559483209091797</v>
+        <v>0.1206695185938953</v>
       </c>
       <c r="T10">
-        <v>0.07559483209091795</v>
+        <v>0.1206695185938953</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,14 +1086,14 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>27</v>
       </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8876559999999999</v>
+        <v>0.8876560000000001</v>
       </c>
       <c r="H11">
         <v>2.662968</v>
       </c>
       <c r="I11">
-        <v>0.2700947919357631</v>
+        <v>0.454495075163261</v>
       </c>
       <c r="J11">
-        <v>0.2700947919357631</v>
+        <v>0.4544950751632609</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.178520333333333</v>
+        <v>0.4015706666666667</v>
       </c>
       <c r="N11">
-        <v>3.535561</v>
+        <v>1.204712</v>
       </c>
       <c r="O11">
-        <v>0.02576316587826764</v>
+        <v>0.007617125205828518</v>
       </c>
       <c r="P11">
-        <v>0.02576316587826764</v>
+        <v>0.007617125205828518</v>
       </c>
       <c r="Q11">
-        <v>1.046120645005333</v>
+        <v>0.3564566116906667</v>
       </c>
       <c r="R11">
-        <v>9.415085805047999</v>
+        <v>3.208109505216</v>
       </c>
       <c r="S11">
-        <v>0.006958496927497251</v>
+        <v>0.003461945892951002</v>
       </c>
       <c r="T11">
-        <v>0.006958496927497248</v>
+        <v>0.003461945892951002</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8876559999999999</v>
+        <v>0.8876560000000001</v>
       </c>
       <c r="H12">
         <v>2.662968</v>
       </c>
       <c r="I12">
-        <v>0.2700947919357631</v>
+        <v>0.454495075163261</v>
       </c>
       <c r="J12">
-        <v>0.2700947919357631</v>
+        <v>0.4544950751632609</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.44041166666667</v>
+        <v>16.23173666666667</v>
       </c>
       <c r="N12">
-        <v>37.321235</v>
+        <v>48.69521</v>
       </c>
       <c r="O12">
-        <v>0.2719549084535122</v>
+        <v>0.3078889489721301</v>
       </c>
       <c r="P12">
-        <v>0.2719549084535122</v>
+        <v>0.3078889489721302</v>
       </c>
       <c r="Q12">
-        <v>11.04280605838667</v>
+        <v>14.40819844258667</v>
       </c>
       <c r="R12">
-        <v>99.38525452547999</v>
+        <v>129.67378598328</v>
       </c>
       <c r="S12">
-        <v>0.07345360441466089</v>
+        <v>0.1399340110050257</v>
       </c>
       <c r="T12">
-        <v>0.07345360441466087</v>
+        <v>0.1399340110050257</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8876559999999999</v>
+        <v>0.8876560000000001</v>
       </c>
       <c r="H13">
         <v>2.662968</v>
       </c>
       <c r="I13">
-        <v>0.2700947919357631</v>
+        <v>0.454495075163261</v>
       </c>
       <c r="J13">
-        <v>0.2700947919357631</v>
+        <v>0.4544950751632609</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.20101766666667</v>
+        <v>14.266431</v>
       </c>
       <c r="N13">
-        <v>42.603053</v>
+        <v>42.799293</v>
       </c>
       <c r="O13">
-        <v>0.3104428183701619</v>
+        <v>0.2706103811549482</v>
       </c>
       <c r="P13">
-        <v>0.3104428183701618</v>
+        <v>0.2706103811549483</v>
       </c>
       <c r="Q13">
-        <v>12.60561853792267</v>
+        <v>12.663683075736</v>
       </c>
       <c r="R13">
-        <v>113.450566841304</v>
+        <v>113.973147681624</v>
       </c>
       <c r="S13">
-        <v>0.08384898843564077</v>
+        <v>0.1229910855229769</v>
       </c>
       <c r="T13">
-        <v>0.08384898843564074</v>
+        <v>0.1229910855229769</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1959093333333334</v>
+        <v>0.03472366666666667</v>
       </c>
       <c r="H14">
-        <v>0.587728</v>
+        <v>0.104171</v>
       </c>
       <c r="I14">
-        <v>0.05961103245507352</v>
+        <v>0.01777911205648437</v>
       </c>
       <c r="J14">
-        <v>0.0596110324550735</v>
+        <v>0.01777911205648436</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.692626</v>
+        <v>6.393818</v>
       </c>
       <c r="N14">
-        <v>11.077878</v>
+        <v>19.181454</v>
       </c>
       <c r="O14">
-        <v>0.08072303334413175</v>
+        <v>0.1212800542767402</v>
       </c>
       <c r="P14">
-        <v>0.08072303334413174</v>
+        <v>0.1212800542767402</v>
       </c>
       <c r="Q14">
-        <v>0.7234198979093335</v>
+        <v>0.2220168049593333</v>
       </c>
       <c r="R14">
-        <v>6.510779081184</v>
+        <v>1.998151244634</v>
       </c>
       <c r="S14">
-        <v>0.00481198336054902</v>
+        <v>0.00215625167520267</v>
       </c>
       <c r="T14">
-        <v>0.004811983360549017</v>
+        <v>0.00215625167520267</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1959093333333334</v>
+        <v>0.03472366666666667</v>
       </c>
       <c r="H15">
-        <v>0.587728</v>
+        <v>0.104171</v>
       </c>
       <c r="I15">
-        <v>0.05961103245507352</v>
+        <v>0.01777911205648437</v>
       </c>
       <c r="J15">
-        <v>0.0596110324550735</v>
+        <v>0.01777911205648436</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>4.286269</v>
       </c>
       <c r="O15">
-        <v>0.03123347588851567</v>
+        <v>0.02710112262421342</v>
       </c>
       <c r="P15">
-        <v>0.03123347588851567</v>
+        <v>0.02710112262421342</v>
       </c>
       <c r="Q15">
-        <v>0.2799067007591111</v>
+        <v>0.04961165866655556</v>
       </c>
       <c r="R15">
-        <v>2.519160306832</v>
+        <v>0.446504927999</v>
       </c>
       <c r="S15">
-        <v>0.001861859744875064</v>
+        <v>0.0004818338959924139</v>
       </c>
       <c r="T15">
-        <v>0.001861859744875063</v>
+        <v>0.0004818338959924139</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1959093333333334</v>
+        <v>0.03472366666666667</v>
       </c>
       <c r="H16">
-        <v>0.587728</v>
+        <v>0.104171</v>
       </c>
       <c r="I16">
-        <v>0.05961103245507352</v>
+        <v>0.01777911205648437</v>
       </c>
       <c r="J16">
-        <v>0.0596110324550735</v>
+        <v>0.01777911205648436</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.803059</v>
+        <v>13.99713933333333</v>
       </c>
       <c r="N16">
-        <v>38.409177</v>
+        <v>41.991418</v>
       </c>
       <c r="O16">
-        <v>0.2798825980654109</v>
+        <v>0.2655023677661394</v>
       </c>
       <c r="P16">
-        <v>0.2798825980654109</v>
+        <v>0.2655023677661394</v>
       </c>
       <c r="Q16">
-        <v>2.508238753317333</v>
+        <v>0.4860320004975556</v>
       </c>
       <c r="R16">
-        <v>22.574148779856</v>
+        <v>4.374288004478</v>
       </c>
       <c r="S16">
-        <v>0.01668409063688751</v>
+        <v>0.004720396347776115</v>
       </c>
       <c r="T16">
-        <v>0.0166840906368875</v>
+        <v>0.004720396347776115</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,13 +1458,13 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
         <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1959093333333334</v>
+        <v>0.03472366666666667</v>
       </c>
       <c r="H17">
-        <v>0.587728</v>
+        <v>0.104171</v>
       </c>
       <c r="I17">
-        <v>0.05961103245507352</v>
+        <v>0.01777911205648437</v>
       </c>
       <c r="J17">
-        <v>0.0596110324550735</v>
+        <v>0.01777911205648436</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.178520333333333</v>
+        <v>0.4015706666666667</v>
       </c>
       <c r="N17">
-        <v>3.535561</v>
+        <v>1.204712</v>
       </c>
       <c r="O17">
-        <v>0.02576316587826764</v>
+        <v>0.007617125205828518</v>
       </c>
       <c r="P17">
-        <v>0.02576316587826764</v>
+        <v>0.007617125205828518</v>
       </c>
       <c r="Q17">
-        <v>0.2308831328231112</v>
+        <v>0.01394400597244445</v>
       </c>
       <c r="R17">
-        <v>2.077948195408</v>
+        <v>0.125496053752</v>
       </c>
       <c r="S17">
-        <v>0.001535768917314855</v>
+        <v>0.0001354257225826967</v>
       </c>
       <c r="T17">
-        <v>0.001535768917314854</v>
+        <v>0.0001354257225826967</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.1959093333333334</v>
+        <v>0.03472366666666667</v>
       </c>
       <c r="H18">
-        <v>0.587728</v>
+        <v>0.104171</v>
       </c>
       <c r="I18">
-        <v>0.05961103245507352</v>
+        <v>0.01777911205648437</v>
       </c>
       <c r="J18">
-        <v>0.0596110324550735</v>
+        <v>0.01777911205648436</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>12.44041166666667</v>
+        <v>16.23173666666667</v>
       </c>
       <c r="N18">
-        <v>37.321235</v>
+        <v>48.69521</v>
       </c>
       <c r="O18">
-        <v>0.2719549084535122</v>
+        <v>0.3078889489721301</v>
       </c>
       <c r="P18">
-        <v>0.2719549084535122</v>
+        <v>0.3078889489721302</v>
       </c>
       <c r="Q18">
-        <v>2.437192756008889</v>
+        <v>0.5636254134344444</v>
       </c>
       <c r="R18">
-        <v>21.93473480408</v>
+        <v>5.07262872091</v>
       </c>
       <c r="S18">
-        <v>0.01621151287413887</v>
+        <v>0.005473992124728699</v>
       </c>
       <c r="T18">
-        <v>0.01621151287413886</v>
+        <v>0.005473992124728698</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.1959093333333334</v>
+        <v>0.03472366666666667</v>
       </c>
       <c r="H19">
-        <v>0.587728</v>
+        <v>0.104171</v>
       </c>
       <c r="I19">
-        <v>0.05961103245507352</v>
+        <v>0.01777911205648437</v>
       </c>
       <c r="J19">
-        <v>0.0596110324550735</v>
+        <v>0.01777911205648436</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>14.20101766666667</v>
+        <v>14.266431</v>
       </c>
       <c r="N19">
-        <v>42.603053</v>
+        <v>42.799293</v>
       </c>
       <c r="O19">
-        <v>0.3104428183701619</v>
+        <v>0.2706103811549482</v>
       </c>
       <c r="P19">
-        <v>0.3104428183701618</v>
+        <v>0.2706103811549483</v>
       </c>
       <c r="Q19">
-        <v>2.782111903731556</v>
+        <v>0.495382794567</v>
       </c>
       <c r="R19">
-        <v>25.039007133584</v>
+        <v>4.458445151103</v>
       </c>
       <c r="S19">
-        <v>0.01850581692130821</v>
+        <v>0.004811212290201769</v>
       </c>
       <c r="T19">
-        <v>0.0185058169213082</v>
+        <v>0.004811212290201769</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.899417</v>
+        <v>0.05406733333333334</v>
       </c>
       <c r="H20">
-        <v>2.698251</v>
+        <v>0.162202</v>
       </c>
       <c r="I20">
-        <v>0.2736734134377375</v>
+        <v>0.02768340069487551</v>
       </c>
       <c r="J20">
-        <v>0.2736734134377374</v>
+        <v>0.02768340069487551</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.692626</v>
+        <v>6.393818</v>
       </c>
       <c r="N20">
-        <v>11.077878</v>
+        <v>19.181454</v>
       </c>
       <c r="O20">
-        <v>0.08072303334413175</v>
+        <v>0.1212800542767402</v>
       </c>
       <c r="P20">
-        <v>0.08072303334413174</v>
+        <v>0.1212800542767402</v>
       </c>
       <c r="Q20">
-        <v>3.321210599042</v>
+        <v>0.3456966890786667</v>
       </c>
       <c r="R20">
-        <v>29.890895391378</v>
+        <v>3.111270201708001</v>
       </c>
       <c r="S20">
-        <v>0.02209174807833684</v>
+        <v>0.003357444338839249</v>
       </c>
       <c r="T20">
-        <v>0.02209174807833682</v>
+        <v>0.00335744433883925</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.899417</v>
+        <v>0.05406733333333334</v>
       </c>
       <c r="H21">
-        <v>2.698251</v>
+        <v>0.162202</v>
       </c>
       <c r="I21">
-        <v>0.2736734134377375</v>
+        <v>0.02768340069487551</v>
       </c>
       <c r="J21">
-        <v>0.2736734134377374</v>
+        <v>0.02768340069487551</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>4.286269</v>
       </c>
       <c r="O21">
-        <v>0.03123347588851567</v>
+        <v>0.02710112262421342</v>
       </c>
       <c r="P21">
-        <v>0.03123347588851567</v>
+        <v>0.02710112262421342</v>
       </c>
       <c r="Q21">
-        <v>1.285047735057667</v>
+        <v>0.07724904492644445</v>
       </c>
       <c r="R21">
-        <v>11.565429615519</v>
+        <v>0.6952414043380001</v>
       </c>
       <c r="S21">
-        <v>0.008547771959935354</v>
+        <v>0.0007502512368870562</v>
       </c>
       <c r="T21">
-        <v>0.008547771959935351</v>
+        <v>0.0007502512368870563</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.899417</v>
+        <v>0.05406733333333334</v>
       </c>
       <c r="H22">
-        <v>2.698251</v>
+        <v>0.162202</v>
       </c>
       <c r="I22">
-        <v>0.2736734134377375</v>
+        <v>0.02768340069487551</v>
       </c>
       <c r="J22">
-        <v>0.2736734134377374</v>
+        <v>0.02768340069487551</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.803059</v>
+        <v>13.99713933333333</v>
       </c>
       <c r="N22">
-        <v>38.409177</v>
+        <v>41.991418</v>
       </c>
       <c r="O22">
-        <v>0.2798825980654109</v>
+        <v>0.2655023677661394</v>
       </c>
       <c r="P22">
-        <v>0.2798825980654109</v>
+        <v>0.2655023677661394</v>
       </c>
       <c r="Q22">
-        <v>11.515288916603</v>
+        <v>0.7567879980484445</v>
       </c>
       <c r="R22">
-        <v>103.637600249427</v>
+        <v>6.811091982436001</v>
       </c>
       <c r="S22">
-        <v>0.07659642597438329</v>
+        <v>0.007350008432308237</v>
       </c>
       <c r="T22">
-        <v>0.07659642597438326</v>
+        <v>0.007350008432308239</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
         <v>27</v>
       </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.899417</v>
+        <v>0.05406733333333334</v>
       </c>
       <c r="H23">
-        <v>2.698251</v>
+        <v>0.162202</v>
       </c>
       <c r="I23">
-        <v>0.2736734134377375</v>
+        <v>0.02768340069487551</v>
       </c>
       <c r="J23">
-        <v>0.2736734134377374</v>
+        <v>0.02768340069487551</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.178520333333333</v>
+        <v>0.4015706666666667</v>
       </c>
       <c r="N23">
-        <v>3.535561</v>
+        <v>1.204712</v>
       </c>
       <c r="O23">
-        <v>0.02576316587826764</v>
+        <v>0.007617125205828518</v>
       </c>
       <c r="P23">
-        <v>0.02576316587826764</v>
+        <v>0.007617125205828518</v>
       </c>
       <c r="Q23">
-        <v>1.059981222645667</v>
+        <v>0.02171185509155556</v>
       </c>
       <c r="R23">
-        <v>9.539831003810999</v>
+        <v>0.195406695824</v>
       </c>
       <c r="S23">
-        <v>0.007050693546868151</v>
+        <v>0.000210867929215987</v>
       </c>
       <c r="T23">
-        <v>0.007050693546868147</v>
+        <v>0.000210867929215987</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.899417</v>
+        <v>0.05406733333333334</v>
       </c>
       <c r="H24">
-        <v>2.698251</v>
+        <v>0.162202</v>
       </c>
       <c r="I24">
-        <v>0.2736734134377375</v>
+        <v>0.02768340069487551</v>
       </c>
       <c r="J24">
-        <v>0.2736734134377374</v>
+        <v>0.02768340069487551</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>12.44041166666667</v>
+        <v>16.23173666666667</v>
       </c>
       <c r="N24">
-        <v>37.321235</v>
+        <v>48.69521</v>
       </c>
       <c r="O24">
-        <v>0.2719549084535122</v>
+        <v>0.3078889489721301</v>
       </c>
       <c r="P24">
-        <v>0.2719549084535122</v>
+        <v>0.3078889489721302</v>
       </c>
       <c r="Q24">
-        <v>11.18911773999833</v>
+        <v>0.8776067169355556</v>
       </c>
       <c r="R24">
-        <v>100.702059659985</v>
+        <v>7.898460452420001</v>
       </c>
       <c r="S24">
-        <v>0.07442682809762011</v>
+        <v>0.008523413143919559</v>
       </c>
       <c r="T24">
-        <v>0.07442682809762005</v>
+        <v>0.008523413143919561</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.899417</v>
+        <v>0.05406733333333334</v>
       </c>
       <c r="H25">
-        <v>2.698251</v>
+        <v>0.162202</v>
       </c>
       <c r="I25">
-        <v>0.2736734134377375</v>
+        <v>0.02768340069487551</v>
       </c>
       <c r="J25">
-        <v>0.2736734134377374</v>
+        <v>0.02768340069487551</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,772 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.20101766666667</v>
+        <v>14.266431</v>
       </c>
       <c r="N25">
-        <v>42.603053</v>
+        <v>42.799293</v>
       </c>
       <c r="O25">
-        <v>0.3104428183701619</v>
+        <v>0.2706103811549482</v>
       </c>
       <c r="P25">
-        <v>0.3104428183701618</v>
+        <v>0.2706103811549483</v>
       </c>
       <c r="Q25">
-        <v>12.77263670670033</v>
+        <v>0.7713478803539999</v>
       </c>
       <c r="R25">
-        <v>114.953730360303</v>
+        <v>6.942130923186</v>
       </c>
       <c r="S25">
-        <v>0.08495994578059375</v>
+        <v>0.007491415613705421</v>
       </c>
       <c r="T25">
-        <v>0.0849599457805937</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.05570733333333333</v>
-      </c>
-      <c r="H26">
-        <v>0.167122</v>
-      </c>
-      <c r="I26">
-        <v>0.0169505535995508</v>
-      </c>
-      <c r="J26">
-        <v>0.0169505535995508</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>3.692626</v>
-      </c>
-      <c r="N26">
-        <v>11.077878</v>
-      </c>
-      <c r="O26">
-        <v>0.08072303334413175</v>
-      </c>
-      <c r="P26">
-        <v>0.08072303334413174</v>
-      </c>
-      <c r="Q26">
-        <v>0.2057063474573333</v>
-      </c>
-      <c r="R26">
-        <v>1.851357127116</v>
-      </c>
-      <c r="S26">
-        <v>0.001368300103418032</v>
-      </c>
-      <c r="T26">
-        <v>0.001368300103418032</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G27">
-        <v>0.05570733333333333</v>
-      </c>
-      <c r="H27">
-        <v>0.167122</v>
-      </c>
-      <c r="I27">
-        <v>0.0169505535995508</v>
-      </c>
-      <c r="J27">
-        <v>0.0169505535995508</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>1.428756333333333</v>
-      </c>
-      <c r="N27">
-        <v>4.286269</v>
-      </c>
-      <c r="O27">
-        <v>0.03123347588851567</v>
-      </c>
-      <c r="P27">
-        <v>0.03123347588851567</v>
-      </c>
-      <c r="Q27">
-        <v>0.07959220531311111</v>
-      </c>
-      <c r="R27">
-        <v>0.7163298478179999</v>
-      </c>
-      <c r="S27">
-        <v>0.0005294247071485626</v>
-      </c>
-      <c r="T27">
-        <v>0.0005294247071485624</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G28">
-        <v>0.05570733333333333</v>
-      </c>
-      <c r="H28">
-        <v>0.167122</v>
-      </c>
-      <c r="I28">
-        <v>0.0169505535995508</v>
-      </c>
-      <c r="J28">
-        <v>0.0169505535995508</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>12.803059</v>
-      </c>
-      <c r="N28">
-        <v>38.409177</v>
-      </c>
-      <c r="O28">
-        <v>0.2798825980654109</v>
-      </c>
-      <c r="P28">
-        <v>0.2798825980654109</v>
-      </c>
-      <c r="Q28">
-        <v>0.7132242753993333</v>
-      </c>
-      <c r="R28">
-        <v>6.419018478593999</v>
-      </c>
-      <c r="S28">
-        <v>0.004744164980089282</v>
-      </c>
-      <c r="T28">
-        <v>0.004744164980089281</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G29">
-        <v>0.05570733333333333</v>
-      </c>
-      <c r="H29">
-        <v>0.167122</v>
-      </c>
-      <c r="I29">
-        <v>0.0169505535995508</v>
-      </c>
-      <c r="J29">
-        <v>0.0169505535995508</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>1.178520333333333</v>
-      </c>
-      <c r="N29">
-        <v>3.535561</v>
-      </c>
-      <c r="O29">
-        <v>0.02576316587826764</v>
-      </c>
-      <c r="P29">
-        <v>0.02576316587826764</v>
-      </c>
-      <c r="Q29">
-        <v>0.06565222504911111</v>
-      </c>
-      <c r="R29">
-        <v>0.590870025442</v>
-      </c>
-      <c r="S29">
-        <v>0.000436699924113694</v>
-      </c>
-      <c r="T29">
-        <v>0.0004366999241136939</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G30">
-        <v>0.05570733333333333</v>
-      </c>
-      <c r="H30">
-        <v>0.167122</v>
-      </c>
-      <c r="I30">
-        <v>0.0169505535995508</v>
-      </c>
-      <c r="J30">
-        <v>0.0169505535995508</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>12.44041166666667</v>
-      </c>
-      <c r="N30">
-        <v>37.321235</v>
-      </c>
-      <c r="O30">
-        <v>0.2719549084535122</v>
-      </c>
-      <c r="P30">
-        <v>0.2719549084535122</v>
-      </c>
-      <c r="Q30">
-        <v>0.6930221595188889</v>
-      </c>
-      <c r="R30">
-        <v>6.23719943567</v>
-      </c>
-      <c r="S30">
-        <v>0.004609786252402191</v>
-      </c>
-      <c r="T30">
-        <v>0.00460978625240219</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G31">
-        <v>0.05570733333333333</v>
-      </c>
-      <c r="H31">
-        <v>0.167122</v>
-      </c>
-      <c r="I31">
-        <v>0.0169505535995508</v>
-      </c>
-      <c r="J31">
-        <v>0.0169505535995508</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>14.20101766666667</v>
-      </c>
-      <c r="N31">
-        <v>42.603053</v>
-      </c>
-      <c r="O31">
-        <v>0.3104428183701619</v>
-      </c>
-      <c r="P31">
-        <v>0.3104428183701618</v>
-      </c>
-      <c r="Q31">
-        <v>0.7911008248295556</v>
-      </c>
-      <c r="R31">
-        <v>7.119907423466</v>
-      </c>
-      <c r="S31">
-        <v>0.005262177632379044</v>
-      </c>
-      <c r="T31">
-        <v>0.005262177632379042</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.4343643333333334</v>
-      </c>
-      <c r="H32">
-        <v>1.303093</v>
-      </c>
-      <c r="I32">
-        <v>0.1321678040096424</v>
-      </c>
-      <c r="J32">
-        <v>0.1321678040096424</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>3.692626</v>
-      </c>
-      <c r="N32">
-        <v>11.077878</v>
-      </c>
-      <c r="O32">
-        <v>0.08072303334413175</v>
-      </c>
-      <c r="P32">
-        <v>0.08072303334413174</v>
-      </c>
-      <c r="Q32">
-        <v>1.603945030739333</v>
-      </c>
-      <c r="R32">
-        <v>14.435505276654</v>
-      </c>
-      <c r="S32">
-        <v>0.01066898605009103</v>
-      </c>
-      <c r="T32">
-        <v>0.01066898605009103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.4343643333333334</v>
-      </c>
-      <c r="H33">
-        <v>1.303093</v>
-      </c>
-      <c r="I33">
-        <v>0.1321678040096424</v>
-      </c>
-      <c r="J33">
-        <v>0.1321678040096424</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>1.428756333333333</v>
-      </c>
-      <c r="N33">
-        <v>4.286269</v>
-      </c>
-      <c r="O33">
-        <v>0.03123347588851567</v>
-      </c>
-      <c r="P33">
-        <v>0.03123347588851567</v>
-      </c>
-      <c r="Q33">
-        <v>0.6206007922241111</v>
-      </c>
-      <c r="R33">
-        <v>5.585407130017</v>
-      </c>
-      <c r="S33">
-        <v>0.004128059919773231</v>
-      </c>
-      <c r="T33">
-        <v>0.00412805991977323</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.4343643333333334</v>
-      </c>
-      <c r="H34">
-        <v>1.303093</v>
-      </c>
-      <c r="I34">
-        <v>0.1321678040096424</v>
-      </c>
-      <c r="J34">
-        <v>0.1321678040096424</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>12.803059</v>
-      </c>
-      <c r="N34">
-        <v>38.409177</v>
-      </c>
-      <c r="O34">
-        <v>0.2798825980654109</v>
-      </c>
-      <c r="P34">
-        <v>0.2798825980654109</v>
-      </c>
-      <c r="Q34">
-        <v>5.561192187162333</v>
-      </c>
-      <c r="R34">
-        <v>50.050729684461</v>
-      </c>
-      <c r="S34">
-        <v>0.03699146836681874</v>
-      </c>
-      <c r="T34">
-        <v>0.03699146836681873</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.4343643333333334</v>
-      </c>
-      <c r="H35">
-        <v>1.303093</v>
-      </c>
-      <c r="I35">
-        <v>0.1321678040096424</v>
-      </c>
-      <c r="J35">
-        <v>0.1321678040096424</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1.178520333333333</v>
-      </c>
-      <c r="N35">
-        <v>3.535561</v>
-      </c>
-      <c r="O35">
-        <v>0.02576316587826764</v>
-      </c>
-      <c r="P35">
-        <v>0.02576316587826764</v>
-      </c>
-      <c r="Q35">
-        <v>0.5119071989081112</v>
-      </c>
-      <c r="R35">
-        <v>4.607164790173</v>
-      </c>
-      <c r="S35">
-        <v>0.003405061058466784</v>
-      </c>
-      <c r="T35">
-        <v>0.003405061058466783</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.4343643333333334</v>
-      </c>
-      <c r="H36">
-        <v>1.303093</v>
-      </c>
-      <c r="I36">
-        <v>0.1321678040096424</v>
-      </c>
-      <c r="J36">
-        <v>0.1321678040096424</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>12.44041166666667</v>
-      </c>
-      <c r="N36">
-        <v>37.321235</v>
-      </c>
-      <c r="O36">
-        <v>0.2719549084535122</v>
-      </c>
-      <c r="P36">
-        <v>0.2719549084535122</v>
-      </c>
-      <c r="Q36">
-        <v>5.40367111998389</v>
-      </c>
-      <c r="R36">
-        <v>48.63304007985501</v>
-      </c>
-      <c r="S36">
-        <v>0.03594368303994405</v>
-      </c>
-      <c r="T36">
-        <v>0.03594368303994403</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.4343643333333334</v>
-      </c>
-      <c r="H37">
-        <v>1.303093</v>
-      </c>
-      <c r="I37">
-        <v>0.1321678040096424</v>
-      </c>
-      <c r="J37">
-        <v>0.1321678040096424</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>14.20101766666667</v>
-      </c>
-      <c r="N37">
-        <v>42.603053</v>
-      </c>
-      <c r="O37">
-        <v>0.3104428183701619</v>
-      </c>
-      <c r="P37">
-        <v>0.3104428183701618</v>
-      </c>
-      <c r="Q37">
-        <v>6.168415571436556</v>
-      </c>
-      <c r="R37">
-        <v>55.515740142929</v>
-      </c>
-      <c r="S37">
-        <v>0.04103054557454856</v>
-      </c>
-      <c r="T37">
-        <v>0.04103054557454855</v>
+        <v>0.007491415613705423</v>
       </c>
     </row>
   </sheetData>
